--- a/app/templates/report/marketplaces.xlsx
+++ b/app/templates/report/marketplaces.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A8563F-EA10-4C0F-BF9A-95480437AEDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D533D0D-9D7F-4A28-85EF-ABEB8ABB2E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Marketplaces" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Marketplaces!$A$3:$W$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Marketplaces!$A$3:$Y$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>Tipo</t>
   </si>
@@ -96,9 +96,6 @@
     <t>Duración</t>
   </si>
   <si>
-    <t>Importe total reserva</t>
-  </si>
-  <si>
     <t>Ingreso gestora</t>
   </si>
   <si>
@@ -122,6 +119,17 @@
   <si>
     <t>Mgmt fee
 %</t>
+  </si>
+  <si>
+    <t>IVA</t>
+  </si>
+  <si>
+    <t>Importe bruto reserva</t>
+  </si>
+  <si>
+    <t>Importe
+neto
+reserva</t>
   </si>
 </sst>
 </file>
@@ -252,7 +260,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -290,6 +298,7 @@
     <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -297,13 +306,18 @@
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
     <dxf>
       <border>
         <top style="thin">
           <color auto="1"/>
         </top>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -686,7 +700,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
@@ -708,14 +722,16 @@
     <col min="12" max="12" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="12.85546875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10.140625" style="1" customWidth="1"/>
-    <col min="19" max="21" width="12.85546875" style="1" customWidth="1"/>
-    <col min="22" max="23" width="12" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="14.42578125" style="1"/>
+    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="12.85546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="10.140625" style="1" customWidth="1"/>
+    <col min="21" max="23" width="12.85546875" style="1" customWidth="1"/>
+    <col min="24" max="25" width="12" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="14.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -724,29 +740,26 @@
         <f>SUBTOTAL(9,O4:O4)</f>
         <v>0</v>
       </c>
-      <c r="P1" s="18">
-        <f>SUBTOTAL(9,P4:P4)</f>
-        <v>0</v>
-      </c>
+      <c r="P1" s="18"/>
       <c r="Q1" s="18">
         <f>SUBTOTAL(9,Q4:Q4)</f>
         <v>0</v>
       </c>
-      <c r="R1" s="19">
-        <f t="shared" ref="R1" si="0">IF(O1,(P1+Q1)/O1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S1" s="19" t="e">
-        <f>T1/O1</f>
+      <c r="R1" s="18">
+        <f>SUBTOTAL(9,R4:R4)</f>
+        <v>0</v>
+      </c>
+      <c r="S1" s="18">
+        <f>SUBTOTAL(9,S4:S4)</f>
+        <v>0</v>
+      </c>
+      <c r="T1" s="19">
+        <f t="shared" ref="T1" si="0">IF(O1,(R1+S1)/O1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U1" s="19" t="e">
+        <f>V1/O1</f>
         <v>#DIV/0!</v>
-      </c>
-      <c r="T1" s="18">
-        <f>SUBTOTAL(9,T4:T4)</f>
-        <v>0</v>
-      </c>
-      <c r="U1" s="18">
-        <f>SUBTOTAL(9,U4:U4)</f>
-        <v>0</v>
       </c>
       <c r="V1" s="18">
         <f>SUBTOTAL(9,V4:V4)</f>
@@ -756,8 +769,16 @@
         <f>SUBTOTAL(9,W4:W4)</f>
         <v>0</v>
       </c>
+      <c r="X1" s="18">
+        <f>SUBTOTAL(9,X4:X4)</f>
+        <v>0</v>
+      </c>
+      <c r="Y1" s="18">
+        <f>SUBTOTAL(9,Y4:Y4)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -780,15 +801,19 @@
         <v>6</v>
       </c>
       <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
+      <c r="Q2" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
     </row>
-    <row r="3" spans="1:23" s="10" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" s="10" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -832,34 +857,40 @@
         <v>2</v>
       </c>
       <c r="O3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="V3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q3" s="8" t="s">
+      <c r="W3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="X3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="R3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="T3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="V3" s="8" t="s">
+      <c r="Y3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="W3" s="8" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="11"/>
@@ -884,30 +915,40 @@
       <c r="M4" s="15"/>
       <c r="N4" s="15"/>
       <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="17">
-        <f>IF(O4,(P4+Q4)/O4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S4" s="13"/>
-      <c r="T4" s="6">
-        <f>O4*S4</f>
-        <v>0</v>
-      </c>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7">
-        <f>T4+U4</f>
-        <v>0</v>
-      </c>
-      <c r="W4" s="20">
-        <f>V4-P4-Q4</f>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="6">
+        <f>O4/(1+P4)</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="17">
+        <f>IF(O4,(R4+S4)/O4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="13"/>
+      <c r="V4" s="6">
+        <f>Q4*U4</f>
+        <v>0</v>
+      </c>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7">
+        <f>V4+W4</f>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="20">
+        <f>X4-R4-S4</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:W3" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="A4:W1048576">
+  <autoFilter ref="A3:Y3" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <conditionalFormatting sqref="A4:D1048576">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$A4=$A3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:Y1048576">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$A4&lt;&gt;$A3</formula>
     </cfRule>

--- a/app/templates/report/marketplaces.xlsx
+++ b/app/templates/report/marketplaces.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D533D0D-9D7F-4A28-85EF-ABEB8ABB2E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682487EC-52CB-4225-93D7-EC6132864B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>Tipo</t>
   </si>
@@ -130,6 +130,9 @@
     <t>Importe
 neto
 reserva</t>
+  </si>
+  <si>
+    <t>Estado factura</t>
   </si>
 </sst>
 </file>
@@ -306,7 +309,14 @@
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <top style="thin">
@@ -700,7 +710,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:Z4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
@@ -728,29 +738,30 @@
     <col min="20" max="20" width="10.140625" style="1" customWidth="1"/>
     <col min="21" max="23" width="12.85546875" style="1" customWidth="1"/>
     <col min="24" max="25" width="12" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="14.42578125" style="1"/>
+    <col min="26" max="26" width="18.7109375" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="14.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
       <c r="O1" s="18">
-        <f>SUBTOTAL(9,O4:O4)</f>
+        <f>SUBTOTAL(9,O4:O999999)</f>
         <v>0</v>
       </c>
       <c r="P1" s="18"/>
       <c r="Q1" s="18">
-        <f>SUBTOTAL(9,Q4:Q4)</f>
+        <f>SUBTOTAL(9,Q4:Q999999)</f>
         <v>0</v>
       </c>
       <c r="R1" s="18">
-        <f>SUBTOTAL(9,R4:R4)</f>
+        <f>SUBTOTAL(9,R4:R999999)</f>
         <v>0</v>
       </c>
       <c r="S1" s="18">
-        <f>SUBTOTAL(9,S4:S4)</f>
+        <f>SUBTOTAL(9,S4:S999999)</f>
         <v>0</v>
       </c>
       <c r="T1" s="19">
@@ -762,23 +773,24 @@
         <v>#DIV/0!</v>
       </c>
       <c r="V1" s="18">
-        <f>SUBTOTAL(9,V4:V4)</f>
+        <f>SUBTOTAL(9,V4:V999999)</f>
         <v>0</v>
       </c>
       <c r="W1" s="18">
-        <f>SUBTOTAL(9,W4:W4)</f>
+        <f>SUBTOTAL(9,W4:W999999)</f>
         <v>0</v>
       </c>
       <c r="X1" s="18">
-        <f>SUBTOTAL(9,X4:X4)</f>
+        <f>SUBTOTAL(9,X4:X999999)</f>
         <v>0</v>
       </c>
       <c r="Y1" s="18">
-        <f>SUBTOTAL(9,Y4:Y4)</f>
-        <v>0</v>
-      </c>
+        <f>SUBTOTAL(9,Y4:Y999999)</f>
+        <v>0</v>
+      </c>
+      <c r="Z1" s="18"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
     </row>
-    <row r="3" spans="1:25" s="10" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" s="10" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -889,8 +902,11 @@
       <c r="Y3" s="8" t="s">
         <v>23</v>
       </c>
+      <c r="Z3" s="8" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="11"/>
@@ -940,15 +956,21 @@
         <f>X4-R4-S4</f>
         <v>0</v>
       </c>
+      <c r="Z4" s="20"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:Y3" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="A4:D1048576">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$A4=$A3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:Y1048576">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$A4&lt;&gt;$A3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z4:Z1048576">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$A4&lt;&gt;$A3</formula>
     </cfRule>

--- a/app/templates/report/marketplaces.xlsx
+++ b/app/templates/report/marketplaces.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <workbookPr showObjects="none" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682487EC-52CB-4225-93D7-EC6132864B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2AAD53E-D611-497E-B338-6FC4B3E5FBF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Marketplaces" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Marketplaces!$A$3:$Y$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Marketplaces!$A$3:$AA$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>Tipo</t>
   </si>
@@ -263,7 +263,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -302,6 +302,9 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -309,13 +312,60 @@
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
     <dxf>
       <border>
         <top style="thin">
           <color auto="1"/>
         </top>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
     </dxf>
     <dxf>
       <border>
@@ -710,75 +760,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z4"/>
+  <dimension ref="A1:AB4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
-    <col min="3" max="4" width="10.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1" customWidth="1"/>
-    <col min="6" max="8" width="13.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="38.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="12.85546875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="10.140625" style="1" customWidth="1"/>
-    <col min="21" max="23" width="12.85546875" style="1" customWidth="1"/>
-    <col min="24" max="25" width="12" style="1" customWidth="1"/>
-    <col min="26" max="26" width="18.7109375" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="14.42578125" style="1"/>
+    <col min="3" max="3" width="10.140625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="13.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="1" customWidth="1"/>
+    <col min="8" max="10" width="13.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="38.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="12.85546875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="10.140625" style="1" customWidth="1"/>
+    <col min="23" max="25" width="12.85546875" style="1" customWidth="1"/>
+    <col min="26" max="27" width="12" style="1" customWidth="1"/>
+    <col min="28" max="28" width="18.7109375" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="14.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="O1" s="18">
-        <f>SUBTOTAL(9,O4:O999999)</f>
-        <v>0</v>
-      </c>
-      <c r="P1" s="18"/>
       <c r="Q1" s="18">
         <f>SUBTOTAL(9,Q4:Q999999)</f>
         <v>0</v>
       </c>
-      <c r="R1" s="18">
-        <f>SUBTOTAL(9,R4:R999999)</f>
-        <v>0</v>
-      </c>
+      <c r="R1" s="18"/>
       <c r="S1" s="18">
         <f>SUBTOTAL(9,S4:S999999)</f>
         <v>0</v>
       </c>
-      <c r="T1" s="19">
-        <f t="shared" ref="T1" si="0">IF(O1,(R1+S1)/O1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U1" s="19" t="e">
-        <f>V1/O1</f>
+      <c r="T1" s="18">
+        <f>SUBTOTAL(9,T4:T999999)</f>
+        <v>0</v>
+      </c>
+      <c r="U1" s="18">
+        <f>SUBTOTAL(9,U4:U999999)</f>
+        <v>0</v>
+      </c>
+      <c r="V1" s="19">
+        <f t="shared" ref="V1" si="0">IF(Q1,(T1+U1)/Q1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W1" s="19" t="e">
+        <f>X1/Q1</f>
         <v>#DIV/0!</v>
-      </c>
-      <c r="V1" s="18">
-        <f>SUBTOTAL(9,V4:V999999)</f>
-        <v>0</v>
-      </c>
-      <c r="W1" s="18">
-        <f>SUBTOTAL(9,W4:W999999)</f>
-        <v>0</v>
       </c>
       <c r="X1" s="18">
         <f>SUBTOTAL(9,X4:X999999)</f>
@@ -788,20 +832,28 @@
         <f>SUBTOTAL(9,Y4:Y999999)</f>
         <v>0</v>
       </c>
-      <c r="Z1" s="18"/>
+      <c r="Z1" s="18">
+        <f>SUBTOTAL(9,Z4:Z999999)</f>
+        <v>0</v>
+      </c>
+      <c r="AA1" s="18">
+        <f>SUBTOTAL(9,AA4:AA999999)</f>
+        <v>0</v>
+      </c>
+      <c r="AB1" s="18"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -809,15 +861,15 @@
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
-      <c r="O2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="P2" s="3"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
       <c r="Q2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
+      <c r="S2" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
@@ -825,8 +877,10 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
     </row>
-    <row r="3" spans="1:26" s="10" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" s="10" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -837,142 +891,159 @@
         <v>11</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="J3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="K3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="L3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="M3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="N3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="O3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="P3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="Q3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="R3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="S3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="T3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="U3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="V3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="U3" s="8" t="s">
+      <c r="W3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="V3" s="8" t="s">
+      <c r="X3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="W3" s="8" t="s">
+      <c r="Y3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="X3" s="8" t="s">
+      <c r="Z3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="Y3" s="8" t="s">
+      <c r="AA3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Z3" s="8" t="s">
+      <c r="AB3" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="11"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="12" t="s">
+      <c r="D4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="E4" s="22" t="s">
         <v>7</v>
       </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="16"/>
       <c r="H4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="14" t="e">
-        <f>MROUND((H4-G4)/30,0.5)</f>
+      <c r="I4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="14" t="e">
+        <f>MROUND((J4-I4)/30,0.5)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
       <c r="N4" s="15"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="6">
-        <f>O4/(1+P4)</f>
-        <v>0</v>
-      </c>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="17">
-        <f>IF(O4,(R4+S4)/O4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U4" s="13"/>
-      <c r="V4" s="6">
-        <f>Q4*U4</f>
-        <v>0</v>
-      </c>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7">
-        <f>V4+W4</f>
-        <v>0</v>
-      </c>
-      <c r="Y4" s="20">
-        <f>X4-R4-S4</f>
-        <v>0</v>
-      </c>
-      <c r="Z4" s="20"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="6">
+        <f>Q4/(1+R4)</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="17">
+        <f>IF(Q4,(T4+U4)/Q4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W4" s="13"/>
+      <c r="X4" s="6">
+        <f>S4*W4</f>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7">
+        <f>X4+Y4</f>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="20">
+        <f>Z4-T4-U4</f>
+        <v>0</v>
+      </c>
+      <c r="AB4" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:Y3" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="A4:D1048576">
-    <cfRule type="expression" dxfId="2" priority="3">
+  <autoFilter ref="A3:AA3" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <conditionalFormatting sqref="A4:F1048576">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>$A4=$A3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:Y1048576">
-    <cfRule type="expression" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A4:AB1048576">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>$A4&lt;&gt;$A3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z4:Z1048576">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$A4&lt;&gt;$A3</formula>
+  <conditionalFormatting sqref="D4:E4">
+    <cfRule type="expression" dxfId="5" priority="2">
+      <formula>$A4=$A3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:E4">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>$A4=$A3</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/templates/report/marketplaces.xlsx
+++ b/app/templates/report/marketplaces.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr showObjects="none" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2AAD53E-D611-497E-B338-6FC4B3E5FBF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA1B358-5872-4D30-991F-CEB36624AE58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -139,9 +139,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -302,7 +303,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -312,11 +313,13 @@
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="10">
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -341,11 +344,6 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
       <border>
         <top style="thin">
           <color auto="1"/>
@@ -358,14 +356,11 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -766,7 +761,7 @@
       <pane xSplit="7" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1026,23 +1021,21 @@
     </row>
   </sheetData>
   <autoFilter ref="A3:AA3" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="A4:F1048576">
-    <cfRule type="expression" dxfId="7" priority="5">
-      <formula>$A4=$A3</formula>
+  <conditionalFormatting sqref="D4:F99999">
+    <cfRule type="expression" dxfId="9" priority="2">
+      <formula>AND($A4=$A3,$D4=$D3)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:AB1048576">
-    <cfRule type="expression" dxfId="6" priority="3">
+  <conditionalFormatting sqref="D4:AB99999">
+    <cfRule type="expression" dxfId="8" priority="1">
+      <formula>OR($A4&lt;&gt;$A3,$D4&lt;&gt;$D3)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:C99999">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>$A4&lt;&gt;$A3</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4:E4">
-    <cfRule type="expression" dxfId="5" priority="2">
-      <formula>$A4=$A3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4:E4">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="6" priority="4">
       <formula>$A4=$A3</formula>
     </cfRule>
   </conditionalFormatting>

--- a/app/templates/report/marketplaces.xlsx
+++ b/app/templates/report/marketplaces.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA1B358-5872-4D30-991F-CEB36624AE58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBAB9C02-CE0B-49A6-B2A6-95BC310AF5BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Marketplaces" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Marketplaces!$A$3:$AA$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Marketplaces!$A$3:$AB$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>Tipo</t>
   </si>
@@ -133,18 +133,23 @@
   </si>
   <si>
     <t>Estado factura</t>
+  </si>
+  <si>
+    <t>Concepto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -188,6 +193,11 @@
       <b/>
       <sz val="10"/>
       <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -258,13 +268,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -275,8 +286,6 @@
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -306,26 +315,21 @@
     <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Hipervínculo 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Moneda" xfId="4" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <border>
         <top style="thin">
@@ -349,30 +353,6 @@
           <color auto="1"/>
         </top>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -755,13 +735,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB4"/>
+  <dimension ref="A1:AC4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -770,86 +750,87 @@
     <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.140625" style="1" customWidth="1"/>
     <col min="4" max="5" width="13.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1" customWidth="1"/>
-    <col min="8" max="10" width="13.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="38.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="12.85546875" style="1" customWidth="1"/>
-    <col min="22" max="22" width="10.140625" style="1" customWidth="1"/>
-    <col min="23" max="25" width="12.85546875" style="1" customWidth="1"/>
-    <col min="26" max="27" width="12" style="1" customWidth="1"/>
-    <col min="28" max="28" width="18.7109375" style="1" customWidth="1"/>
-    <col min="29" max="16384" width="14.42578125" style="1"/>
+    <col min="6" max="6" width="24.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1" customWidth="1"/>
+    <col min="9" max="11" width="13.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="38.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="12.85546875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="10.140625" style="1" customWidth="1"/>
+    <col min="24" max="26" width="12.85546875" style="1" customWidth="1"/>
+    <col min="27" max="28" width="12" style="1" customWidth="1"/>
+    <col min="29" max="29" width="37.5703125" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="14.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="Q1" s="18">
-        <f>SUBTOTAL(9,Q4:Q999999)</f>
-        <v>0</v>
-      </c>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18">
-        <f>SUBTOTAL(9,S4:S999999)</f>
-        <v>0</v>
-      </c>
-      <c r="T1" s="18">
+      <c r="R1" s="16">
+        <f>SUBTOTAL(9,R4:R999999)</f>
+        <v>0</v>
+      </c>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16">
         <f>SUBTOTAL(9,T4:T999999)</f>
         <v>0</v>
       </c>
-      <c r="U1" s="18">
+      <c r="U1" s="16">
         <f>SUBTOTAL(9,U4:U999999)</f>
         <v>0</v>
       </c>
-      <c r="V1" s="19">
-        <f t="shared" ref="V1" si="0">IF(Q1,(T1+U1)/Q1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W1" s="19" t="e">
-        <f>X1/Q1</f>
+      <c r="V1" s="16">
+        <f>SUBTOTAL(9,V4:V999999)</f>
+        <v>0</v>
+      </c>
+      <c r="W1" s="17">
+        <f t="shared" ref="W1" si="0">IF(R1,(U1+V1)/R1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X1" s="17" t="e">
+        <f>Y1/R1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X1" s="18">
-        <f>SUBTOTAL(9,X4:X999999)</f>
-        <v>0</v>
-      </c>
-      <c r="Y1" s="18">
+      <c r="Y1" s="16">
         <f>SUBTOTAL(9,Y4:Y999999)</f>
         <v>0</v>
       </c>
-      <c r="Z1" s="18">
+      <c r="Z1" s="16">
         <f>SUBTOTAL(9,Z4:Z999999)</f>
         <v>0</v>
       </c>
-      <c r="AA1" s="18">
+      <c r="AA1" s="16">
         <f>SUBTOTAL(9,AA4:AA999999)</f>
         <v>0</v>
       </c>
-      <c r="AB1" s="18"/>
+      <c r="AB1" s="16">
+        <f>SUBTOTAL(9,AB4:AB999999)</f>
+        <v>0</v>
+      </c>
+      <c r="AC1" s="16"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3"/>
+      <c r="H2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -858,14 +839,14 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="4"/>
+      <c r="R2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3" t="s">
+      <c r="S2" s="3"/>
+      <c r="T2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="3"/>
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
@@ -874,169 +855,174 @@
       <c r="Z2" s="3"/>
       <c r="AA2" s="3"/>
       <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
     </row>
-    <row r="3" spans="1:28" s="10" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:29" s="8" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="J3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="K3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="L3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="M3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="N3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="O3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="P3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="Q3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="R3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="S3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="T3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="U3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="U3" s="8" t="s">
+      <c r="V3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="V3" s="8" t="s">
+      <c r="W3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="W3" s="8" t="s">
+      <c r="X3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="X3" s="8" t="s">
+      <c r="Y3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="Y3" s="8" t="s">
+      <c r="Z3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="Z3" s="8" t="s">
+      <c r="AA3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="AA3" s="8" t="s">
+      <c r="AB3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AB3" s="8" t="s">
+      <c r="AC3" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="22" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="12" t="s">
+      <c r="F4" s="21"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="J4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="K4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="14" t="e">
-        <f>MROUND((J4-I4)/30,0.5)</f>
+      <c r="L4" s="12" t="e">
+        <f>MROUND((K4-J4)/30,0.5)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="6">
-        <f>Q4/(1+R4)</f>
-        <v>0</v>
-      </c>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="17">
-        <f>IF(Q4,(T4+U4)/Q4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W4" s="13"/>
-      <c r="X4" s="6">
-        <f>S4*W4</f>
-        <v>0</v>
-      </c>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7">
-        <f>X4+Y4</f>
-        <v>0</v>
-      </c>
-      <c r="AA4" s="20">
-        <f>Z4-T4-U4</f>
-        <v>0</v>
-      </c>
-      <c r="AB4" s="20"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="23">
+        <f>R4/(1+S4)</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="15">
+        <f>IF(R4,(U4+V4)/R4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="23">
+        <f>T4*X4</f>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="24">
+        <f>Y4+Z4</f>
+        <v>0</v>
+      </c>
+      <c r="AB4" s="24">
+        <f>AA4-U4-V4</f>
+        <v>0</v>
+      </c>
+      <c r="AC4" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AA3" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="D4:F99999">
-    <cfRule type="expression" dxfId="9" priority="2">
-      <formula>AND($A4=$A3,$D4=$D3)</formula>
+  <autoFilter ref="A3:AB3" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <conditionalFormatting sqref="A4:C99999">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>$A4&lt;&gt;$A3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$A4=$A3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:AB99999">
-    <cfRule type="expression" dxfId="8" priority="1">
-      <formula>OR($A4&lt;&gt;$A3,$D4&lt;&gt;$D3)</formula>
+  <conditionalFormatting sqref="D4:G99999">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>AND($A4=$A3,$D4=$D3:$F4=$F3)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:C99999">
-    <cfRule type="expression" dxfId="7" priority="3">
-      <formula>$A4&lt;&gt;$A3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="4">
-      <formula>$A4=$A3</formula>
+  <conditionalFormatting sqref="D4:AC99999">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>OR($A4&lt;&gt;$A3,$D4&lt;&gt;$D3,$F4&lt;&gt;$F3)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
